--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +540,10 @@
         <v>10.58654</v>
       </c>
       <c r="I2">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J2">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.04157687142666666</v>
+        <v>1.331684395446666</v>
       </c>
       <c r="R2">
-        <v>0.37419184284</v>
+        <v>11.98515955902</v>
       </c>
       <c r="S2">
-        <v>0.02016184916970426</v>
+        <v>0.4126034279834029</v>
       </c>
       <c r="T2">
-        <v>0.02016184916970427</v>
+        <v>0.4126034279834029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>10.58654</v>
       </c>
       <c r="I3">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J3">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +620,10 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
         <v>1.256316464622222</v>
@@ -635,10 +632,10 @@
         <v>11.3068481816</v>
       </c>
       <c r="S3">
-        <v>0.6092248454481678</v>
+        <v>0.3892517489185211</v>
       </c>
       <c r="T3">
-        <v>0.609224845448168</v>
+        <v>0.3892517489185212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +664,10 @@
         <v>10.58654</v>
       </c>
       <c r="I4">
-        <v>0.9732133606755627</v>
+        <v>0.8781048434890718</v>
       </c>
       <c r="J4">
-        <v>0.9732133606755629</v>
+        <v>0.8781048434890719</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +676,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.2794199604777777</v>
+        <v>0.2460970614044445</v>
       </c>
       <c r="R4">
-        <v>2.5147796443</v>
+        <v>2.21487355264</v>
       </c>
       <c r="S4">
-        <v>0.1354989662484411</v>
+        <v>0.07624966658714777</v>
       </c>
       <c r="T4">
-        <v>0.1354989662484412</v>
+        <v>0.07624966658714778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.528846666666666</v>
+        <v>0.489861</v>
       </c>
       <c r="H5">
-        <v>10.58654</v>
+        <v>1.469583</v>
       </c>
       <c r="I5">
-        <v>0.9732133606755627</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J5">
-        <v>0.9732133606755629</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>0.4296041457644444</v>
+        <v>0.184859335431</v>
       </c>
       <c r="R5">
-        <v>3.86643731188</v>
+        <v>1.663734018879</v>
       </c>
       <c r="S5">
-        <v>0.2083276998092495</v>
+        <v>0.05727603008217352</v>
       </c>
       <c r="T5">
-        <v>0.2083276998092495</v>
+        <v>0.05727603008217352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H6">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J6">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>0.001144358168666667</v>
+        <v>0.17439704748</v>
       </c>
       <c r="R6">
-        <v>0.010299223518</v>
+        <v>1.56957342732</v>
       </c>
       <c r="S6">
-        <v>0.0005549329711705559</v>
+        <v>0.05403443929092291</v>
       </c>
       <c r="T6">
-        <v>0.000554932971170556</v>
+        <v>0.05403443929092291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,179 +835,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09712766666666667</v>
+        <v>0.489861</v>
       </c>
       <c r="H7">
-        <v>0.291383</v>
+        <v>1.469583</v>
       </c>
       <c r="I7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="J7">
-        <v>0.02678663932443721</v>
+        <v>0.1218951565109281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>0.03457874436888889</v>
+        <v>0.03416225299200001</v>
       </c>
       <c r="R7">
-        <v>0.3112086993199999</v>
+        <v>0.307460276928</v>
       </c>
       <c r="S7">
-        <v>0.01676825130224072</v>
+        <v>0.01058468713783166</v>
       </c>
       <c r="T7">
-        <v>0.01676825130224073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.09712766666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.291383</v>
-      </c>
-      <c r="I8">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="J8">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.07918166666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.237545</v>
-      </c>
-      <c r="O8">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="P8">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="Q8">
-        <v>0.007690730526111111</v>
-      </c>
-      <c r="R8">
-        <v>0.06921657473500001</v>
-      </c>
-      <c r="S8">
-        <v>0.003729461682699873</v>
-      </c>
-      <c r="T8">
-        <v>0.003729461682699874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.09712766666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.291383</v>
-      </c>
-      <c r="I9">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="J9">
-        <v>0.02678663932443721</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.365222</v>
-      </c>
-      <c r="O9">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P9">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q9">
-        <v>0.01182438689177778</v>
-      </c>
-      <c r="R9">
-        <v>0.106419482026</v>
-      </c>
-      <c r="S9">
-        <v>0.005733993368326057</v>
-      </c>
-      <c r="T9">
-        <v>0.005733993368326058</v>
+        <v>0.01058468713783166</v>
       </c>
     </row>
   </sheetData>
